--- a/peptaibols_unicos.xlsx
+++ b/peptaibols_unicos.xlsx
@@ -1,31 +1,158 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d6439c5e4199ae94/Documents/doutorado_ufv/artigos_doutorado/carol_artigo/Desrreplicação/peptaibol_shared/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_81C17C0077D9283E8C7224FE2A0E67991AFEA1DB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13172B65-508D-4FFD-B1DE-D63F3B748473}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t xml:space="preserve">peptaibols_unicos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">peptaibols_unicos.xlsx</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+  <si>
+    <t>pep_id</t>
+  </si>
+  <si>
+    <t>n_species</t>
+  </si>
+  <si>
+    <t>specie_unica</t>
+  </si>
+  <si>
+    <t>pep_1089</t>
+  </si>
+  <si>
+    <t>clonostachys chloroleuca</t>
+  </si>
+  <si>
+    <t>pep_1101</t>
+  </si>
+  <si>
+    <t>pep_1103</t>
+  </si>
+  <si>
+    <t>pep_1471</t>
+  </si>
+  <si>
+    <t>pep_1616</t>
+  </si>
+  <si>
+    <t>pep_1774</t>
+  </si>
+  <si>
+    <t>pep_1775</t>
+  </si>
+  <si>
+    <t>pep_1801</t>
+  </si>
+  <si>
+    <t>pep_1235</t>
+  </si>
+  <si>
+    <t>clonostachys farinosa</t>
+  </si>
+  <si>
+    <t>pep_1758</t>
+  </si>
+  <si>
+    <t>pep_1849</t>
+  </si>
+  <si>
+    <t>pep_1123</t>
+  </si>
+  <si>
+    <t>clonostachys pseudochroleuca</t>
+  </si>
+  <si>
+    <t>pep_1405</t>
+  </si>
+  <si>
+    <t>pep_1488</t>
+  </si>
+  <si>
+    <t>pep_1502</t>
+  </si>
+  <si>
+    <t>pep_1518</t>
+  </si>
+  <si>
+    <t>pep_1522</t>
+  </si>
+  <si>
+    <t>pep_1573</t>
+  </si>
+  <si>
+    <t>pep_1759</t>
+  </si>
+  <si>
+    <t>pep_1786</t>
+  </si>
+  <si>
+    <t>pep_1064</t>
+  </si>
+  <si>
+    <t>clonostachys rogersoniana</t>
+  </si>
+  <si>
+    <t>pep_1308</t>
+  </si>
+  <si>
+    <t>pep_1350</t>
+  </si>
+  <si>
+    <t>pep_1392</t>
+  </si>
+  <si>
+    <t>pep_1393</t>
+  </si>
+  <si>
+    <t>pep_1408</t>
+  </si>
+  <si>
+    <t>pep_1577</t>
+  </si>
+  <si>
+    <t>pep_1602</t>
+  </si>
+  <si>
+    <t>pep_1673</t>
+  </si>
+  <si>
+    <t>pep_1689</t>
+  </si>
+  <si>
+    <t>pep_1707</t>
+  </si>
+  <si>
+    <t>pep_1731</t>
+  </si>
+  <si>
+    <t>pep_1973</t>
+  </si>
+  <si>
+    <t>pep_2001</t>
+  </si>
+  <si>
+    <t>area_detectada (log10)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -61,14 +188,26 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:A2" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:A2"/>
-  <tableColumns count="1">
-    <tableColumn id="1" name="peptaibols_unicos"/>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:D35" totalsRowShown="0">
+  <autoFilter ref="A1:D35" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="pep_id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="n_species"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="specie_unica"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="area_detectada (log10)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -352,28 +491,516 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>4.1399999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4.5599999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4.2300000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>5.19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16">
+        <v>5.71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>5.31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19">
+        <v>4.99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>5.73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22">
+        <v>5.37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23">
+        <v>5.08</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29">
+        <v>4.53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30">
+        <v>4.8099999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31">
+        <v>5.49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33">
+        <v>5.09</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35">
+        <v>5.34</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>